--- a/biology/Écologie/Forêts_mixtes_humides_de_l'Atlantique_nord/Forêts_mixtes_humides_de_l'Atlantique_nord.xlsx
+++ b/biology/Écologie/Forêts_mixtes_humides_de_l'Atlantique_nord/Forêts_mixtes_humides_de_l'Atlantique_nord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_humides_de_l%27Atlantique_nord</t>
+          <t>Forêts_mixtes_humides_de_l'Atlantique_nord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes humides de l'Atlantique nord forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus et forêts mixtes tempérées de l'écozone paléarctique. Elle couvre le Nord-Ouest de l'Irlande et de l'Écosse, les archipels écossais des Orcades, des Shetlands et des Hébrides, ainsi que l'île de Bremangerlandet sur la côte norvégienne.
 </t>
